--- a/세부 교육 내용.xlsx
+++ b/세부 교육 내용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlmoon\Documents\GitHub\python_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FAA86-D935-40C8-A998-871E9D519AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C88C82-71F8-4F80-B57B-BE9FC540D098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0839FC-B521-4CA6-9ADA-AE38DA17E175}"/>
   </bookViews>
@@ -32,107 +32,42 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>(8/1) ⦁ 오리엔테이션</t>
-  </si>
-  <si>
-    <t>- 핀테크 성장과정과 동향, 비즈니스 모델 09:0~12:0 ⦁ 금융정보 보안 기초</t>
-  </si>
-  <si>
-    <t>- 금융정보, 개인정보 보안의 기초 및 관련 법규 13:0~18:0</t>
-  </si>
-  <si>
-    <t>- 파이썬의 기초와 기본 문법 탐색 13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/15) ⦁ 핀테크 서비스 개발을 위한 파이썬 프로그래밍 (3)</t>
-  </si>
-  <si>
-    <t>- 머듈에 대한 이해 09:0~12:0 ⦁ 핀테크 서비스 개발을 위한 파이썬 프로그래밍 (4)</t>
-  </si>
-  <si>
-    <t>- 머듈에 대한 이해 13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/2) ⦁ 핀테크 서비스 개발을 위한 파이썬 프로그래밍 (5)</t>
-  </si>
-  <si>
-    <t>- 간단한 예제실습 및 심화학습 09:0~12:0 ⦁ 핀테크 서비스 개발을 위한 파이썬 프로그래밍 (6)</t>
-  </si>
-  <si>
-    <t>- 간단한 예제실습 및 심화학습 13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/26) ⦁ 핀테크 빅데이터 분석 및 이해 (1)</t>
-  </si>
-  <si>
-    <t>- 빅데이터 분석 및 이해 : R 이론 09:0~12:0 ⦁ 핀테크 빅데이터 분석 및 이해 (2)</t>
-  </si>
-  <si>
-    <t>- 빅데이터 분석 및 이해 : R 이론 13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/27) ⦁ 핀테크 빅데이터 분석 및 이해 (3)</t>
-  </si>
-  <si>
-    <t>- 빅데이터 분석 및 이해 : R 이론 및 실습 09:0~12:0 ⦁ 핀테크 빅데이터 분석 및 이해 (4)</t>
-  </si>
-  <si>
-    <t>- 빅데이터 분석 및 이해 : R 이론 및 실습</t>
-  </si>
-  <si>
-    <t>⦁ 핀테크 빅데이터 금융분석 사례 및 데이터 비주얼라</t>
-  </si>
-  <si>
-    <t>이징 실습</t>
-  </si>
-  <si>
-    <t>13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/28) ⦁ 금융 및 핀테크, 취업 전문가 컨설팅 (1)</t>
-  </si>
-  <si>
-    <t>- 입사서류 및 직무분석 09:0~12:0 ⦁ 금융 및 핀테크, 취업 전문가 컨설팅 (2)</t>
-  </si>
-  <si>
-    <t>- 입사서류 및 직무분석 13:0~18:0</t>
-  </si>
-  <si>
-    <t>(8/29) ⦁ 블록체인 요소기술 및 동향 09:0~12:0 ⦁ 핀테크 솔루션/플랫폼 사례</t>
-  </si>
-  <si>
-    <t>활용사례 학습 및 산업 동향</t>
-  </si>
-  <si>
-    <t>⦁ 수료식</t>
-  </si>
-  <si>
-    <t>회차 주요내용 비고(시간)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>주요 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00 ~ 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 ~ 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 변수 , 연산자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-  주요 문장 :제어문, 순환문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 기본 자료형:  리스트, 튜플, 딕셔너리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,41 +75,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주요 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고(시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(8/8) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⦁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 핀테크 서비스 개발을 위한 파이썬 프로그래밍 (1)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (1)</t>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 함수 알아보기 : 함수정의, 매개변수 할당, 익명함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데코레이터 : 클로저, 데코레이터 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 클래스 알아보기 ; 클래스 정의, 다양한 메소드 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로퍼티, 디스크립터 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 데이터 프레임 구조 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공 데이터를 읽고 기술 통계 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공 데이터로 전처리 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공공 데이터로 시각화 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,30 +162,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria Math"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,18 +185,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,231 +588,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3240FCCD-BA20-4209-B1C5-4C17BB1B7EE6}">
-  <dimension ref="C4:E56"/>
+  <dimension ref="A4:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="52.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>44051</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>44058</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44072</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" ht="87.75" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="e">
-        <f>- 코스콤의 빅데이터 AI 활용, 금융권 블록체인</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" t="e" cm="1">
-        <f t="array" ref="C55">- 시상 및 수료증 수여</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
+      <c r="C25" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/세부 교육 내용.xlsx
+++ b/세부 교육 내용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlmoon\Documents\GitHub\python_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C88C82-71F8-4F80-B57B-BE9FC540D098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD138C0-2FFA-4F8A-BE7F-8F992F93FA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0839FC-B521-4CA6-9ADA-AE38DA17E175}"/>
   </bookViews>
@@ -253,6 +253,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -261,18 +273,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3240FCCD-BA20-4209-B1C5-4C17BB1B7EE6}">
-  <dimension ref="A4:C25"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,211 +601,211 @@
     <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>44051</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>44051</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>44058</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8"/>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>44058</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>44065</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>44065</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8"/>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8"/>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>44065</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>44072</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>44072</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/세부 교육 내용.xlsx
+++ b/세부 교육 내용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlmoon\Documents\GitHub\python_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD138C0-2FFA-4F8A-BE7F-8F992F93FA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1502EF-3286-4AF8-8C7C-7E48F046781F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0839FC-B521-4CA6-9ADA-AE38DA17E175}"/>
   </bookViews>
@@ -250,29 +250,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +591,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,210 +602,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44051</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44058</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44065</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44065</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44072</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/세부 교육 내용.xlsx
+++ b/세부 교육 내용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahlmoon\Documents\GitHub\python_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1502EF-3286-4AF8-8C7C-7E48F046781F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85235D8E-1804-4CC9-8DF9-629F54C67B81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD0839FC-B521-4CA6-9ADA-AE38DA17E175}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>주요 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,26 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00 ~ 18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:00 ~ 12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 변수 , 연산자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-  주요 문장 :제어문, 순환문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 기본 자료형:  리스트, 튜플, 딕셔너리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 함수 알아보기 : 함수정의, 매개변수 할당, 익명함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 데코레이터 : 클로저, 데코레이터 기법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 클래스 알아보기 ; 클래스 정의, 다양한 메소드 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 프로퍼티, 디스크립터 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>핀테크 빅데이터 분석 및 이해(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,19 +87,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 데이터 프레임 구조 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공공 데이터를 읽고 기술 통계 알아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공공 데이터로 전처리 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 공공 데이터로 시각화 하기</t>
+    <t xml:space="preserve">    파이썬문법_01_변수 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬문법_02_표현식과 문장 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬 문법_03_함수 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬 문법_04_클래스 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 ~ 14:00(3시간, 점심시간 제외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 ~ 17:00(3시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬 문법_05_파이썬 자료형 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬문법_06_모듈 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 서비스 개발을 위한 파이썬 프로그래밍 (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬문법_08_프로퍼티 디스크립터 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    파이썬문법_07_데코레이터 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀테크 빅데이터 분석 및 이해(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    데이터분석_1_공공데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    데이터분석_2_캐글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    데이터분석_3_구글데이터세트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,9 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,12 +289,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,22 +604,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3240FCCD-BA20-4209-B1C5-4C17BB1B7EE6}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="52.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -613,199 +629,266 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>44051</v>
+      <c r="A2" s="7">
+        <v>44065</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44072</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>44079</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>44058</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>44086</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>44093</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>44107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>44065</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>44114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>44065</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>44072</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
+  <mergeCells count="21">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
